--- a/Excel/Excel Fundamentals for Data Analysis/Week 3/131 - Cell referencing and naming.xlsx
+++ b/Excel/Excel Fundamentals for Data Analysis/Week 3/131 - Cell referencing and naming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azrai Mahadan\AI_ML_DL\Excel\Excel Fundamentals for Data Analysis\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ABD841-2EFA-4465-8253-F756BDE73FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A972047-1700-4EC5-A888-E3C72A7696ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8664" yWindow="3288" windowWidth="14724" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Invoice Statement" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="426">
   <si>
     <t>System Report for MedsCo April 2020</t>
   </si>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Perth</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,6 +1389,12 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1483,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1531,6 +1540,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,7 +2000,7 @@
         <v>INV</v>
       </c>
       <c r="Q3" s="22" t="e">
-        <f t="shared" ref="Q2:Q85" si="8">VALUE(SUBSTITUTE(SUBSTITUTE(F3,"S","$"),CHAR(160),""))</f>
+        <f t="shared" ref="Q3:Q85" si="8">VALUE(SUBSTITUTE(SUBSTITUTE(F3,"S","$"),CHAR(160),""))</f>
         <v>#VALUE!</v>
       </c>
       <c r="R3" s="23" t="e">
@@ -13994,7 +14004,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14031,7 +14041,7 @@
       </c>
       <c r="B2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44567</v>
+        <v>44572</v>
       </c>
       <c r="D2" s="5"/>
       <c r="F2" s="2"/>
@@ -14159,7 +14169,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="20">
-        <f>J5*M5*Penalty_Rate</f>
+        <f t="shared" ref="N5:N36" si="3">J5*M5*Penalty_Rate</f>
         <v>26.73</v>
       </c>
     </row>
@@ -14208,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="20">
-        <f>J6*M6*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="12"/>
@@ -14258,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="20">
-        <f>J7*M7*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14307,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="20">
-        <f>J8*M8*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14356,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="20">
-        <f>J9*M9*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" t="s">
@@ -14411,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="20">
-        <f>J10*M10*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" t="s">
@@ -14466,7 +14476,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="20">
-        <f>J11*M11*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>20.108087999999999</v>
       </c>
       <c r="P11" t="s">
@@ -14521,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="20">
-        <f>J12*M12*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" t="s">
@@ -14576,7 +14586,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="20">
-        <f>J13*M13*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>3.2028479999999999</v>
       </c>
       <c r="P13" t="s">
@@ -14631,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="20">
-        <f>J14*M14*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>2.4472799999999997</v>
       </c>
       <c r="P14" t="s">
@@ -14686,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="20">
-        <f>J15*M15*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" t="s">
@@ -14741,7 +14751,7 @@
         <v>10</v>
       </c>
       <c r="N16" s="20">
-        <f>J16*M16*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>22.453199999999999</v>
       </c>
       <c r="P16" t="s">
@@ -14796,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f>J17*M17*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P17" t="s">
@@ -14851,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f>J18*M18*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" t="s">
@@ -14906,7 +14916,7 @@
         <v>7</v>
       </c>
       <c r="N19" s="20">
-        <f>J19*M19*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>16.182935999999998</v>
       </c>
       <c r="P19" t="s">
@@ -14961,7 +14971,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="20">
-        <f>J20*M20*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>16.19838</v>
       </c>
       <c r="P20" t="s">
@@ -15016,7 +15026,7 @@
         <v>7</v>
       </c>
       <c r="N21" s="20">
-        <f>J21*M21*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>7.5509279999999999</v>
       </c>
       <c r="P21" t="s">
@@ -15071,7 +15081,7 @@
         <v>7</v>
       </c>
       <c r="N22" s="20">
-        <f>J22*M22*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>7.8835679999999986</v>
       </c>
       <c r="P22" t="s">
@@ -15126,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f>J23*M23*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15175,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <f>J24*M24*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15224,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="20">
-        <f>J25*M25*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15273,7 +15283,7 @@
         <v>9</v>
       </c>
       <c r="N26" s="20">
-        <f>J26*M26*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>35.540208</v>
       </c>
     </row>
@@ -15322,7 +15332,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="20">
-        <f>J27*M27*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>9.2545199999999994</v>
       </c>
     </row>
@@ -15371,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="20">
-        <f>J28*M28*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15420,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="20">
-        <f>J29*M29*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15469,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f>J30*M30*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15518,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="20">
-        <f>J31*M31*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15567,7 +15577,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="20">
-        <f>J32*M32*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>3.2681879999999999</v>
       </c>
     </row>
@@ -15616,7 +15626,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="20">
-        <f>J33*M33*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>18.404495999999998</v>
       </c>
     </row>
@@ -15665,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="20">
-        <f>J34*M34*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>1.7629920000000001</v>
       </c>
     </row>
@@ -15714,7 +15724,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="20">
-        <f>J35*M35*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>2.5375679999999998</v>
       </c>
     </row>
@@ -15763,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="20">
-        <f>J36*M36*Penalty_Rate</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15812,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="20">
-        <f>J37*M37*Penalty_Rate</f>
+        <f t="shared" ref="N37:N68" si="4">J37*M37*Penalty_Rate</f>
         <v>0</v>
       </c>
     </row>
@@ -15861,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="20">
-        <f>J38*M38*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15910,7 +15920,7 @@
         <v>6</v>
       </c>
       <c r="N39" s="20">
-        <f>J39*M39*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>13.928112</v>
       </c>
     </row>
@@ -15959,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="20">
-        <f>J40*M40*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16008,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="20">
-        <f>J41*M41*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16057,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="20">
-        <f>J42*M42*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16106,7 +16116,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="20">
-        <f>J43*M43*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>44.022527999999994</v>
       </c>
     </row>
@@ -16155,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="20">
-        <f>J44*M44*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16204,7 +16214,7 @@
         <v>7</v>
       </c>
       <c r="N45" s="20">
-        <f>J45*M45*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>-15.126803999999998</v>
       </c>
     </row>
@@ -16253,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="20">
-        <f>J46*M46*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16302,7 +16312,7 @@
         <v>6</v>
       </c>
       <c r="N47" s="20">
-        <f>J47*M47*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>5.4814319999999999</v>
       </c>
     </row>
@@ -16351,7 +16361,7 @@
         <v>9</v>
       </c>
       <c r="N48" s="20">
-        <f>J48*M48*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>14.348664000000001</v>
       </c>
     </row>
@@ -16400,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="20">
-        <f>J49*M49*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16449,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="20">
-        <f>J50*M50*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16498,7 +16508,7 @@
         <v>8</v>
       </c>
       <c r="N51" s="20">
-        <f>J51*M51*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>27.381024</v>
       </c>
     </row>
@@ -16547,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="20">
-        <f>J52*M52*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16596,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="20">
-        <f>J53*M53*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16645,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="20">
-        <f>J54*M54*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16694,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="20">
-        <f>J55*M55*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16743,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="20">
-        <f>J56*M56*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16792,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="20">
-        <f>J57*M57*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16841,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="20">
-        <f>J58*M58*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16890,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="20">
-        <f>J59*M59*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16939,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="20">
-        <f>J60*M60*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16988,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="20">
-        <f>J61*M61*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17037,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="20">
-        <f>J62*M62*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17086,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="20">
-        <f>J63*M63*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17135,7 +17145,7 @@
         <v>11</v>
       </c>
       <c r="N64" s="20">
-        <f>J64*M64*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>20.268467999999999</v>
       </c>
     </row>
@@ -17184,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="20">
-        <f>J65*M65*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17233,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="20">
-        <f>J66*M66*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17282,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="20">
-        <f>J67*M67*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -17331,7 +17341,7 @@
         <v>6</v>
       </c>
       <c r="N68" s="20">
-        <f>J68*M68*Penalty_Rate</f>
+        <f t="shared" si="4"/>
         <v>21.604968</v>
       </c>
     </row>
@@ -17380,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="20">
-        <f>J69*M69*Penalty_Rate</f>
+        <f t="shared" ref="N69:N100" si="5">J69*M69*Penalty_Rate</f>
         <v>0</v>
       </c>
     </row>
@@ -17429,7 +17439,7 @@
         <v>3</v>
       </c>
       <c r="N70" s="20">
-        <f>J70*M70*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>4.8220919999999996</v>
       </c>
     </row>
@@ -17478,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="20">
-        <f>J71*M71*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17527,7 +17537,7 @@
         <v>10</v>
       </c>
       <c r="N72" s="20">
-        <f>J72*M72*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>21.621600000000001</v>
       </c>
     </row>
@@ -17576,7 +17586,7 @@
         <v>5</v>
       </c>
       <c r="N73" s="20">
-        <f>J73*M73*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>9.8425799999999981</v>
       </c>
     </row>
@@ -17625,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="20">
-        <f>J74*M74*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17674,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="20">
-        <f>J75*M75*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17723,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="20">
-        <f>J76*M76*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17772,7 +17782,7 @@
         <v>7</v>
       </c>
       <c r="N77" s="20">
-        <f>J77*M77*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>26.852363999999998</v>
       </c>
     </row>
@@ -17821,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="20">
-        <f>J78*M78*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17870,7 +17880,7 @@
         <v>9</v>
       </c>
       <c r="N79" s="20">
-        <f>J79*M79*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>21.073931999999999</v>
       </c>
     </row>
@@ -17919,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="20">
-        <f>J80*M80*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17968,7 +17978,7 @@
         <v>7</v>
       </c>
       <c r="N81" s="20">
-        <f>J81*M81*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>10.694375999999998</v>
       </c>
     </row>
@@ -18017,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="20">
-        <f>J82*M82*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18066,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="20">
-        <f>J83*M83*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18115,7 +18125,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="20">
-        <f>J84*M84*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18164,7 +18174,7 @@
         <v>6</v>
       </c>
       <c r="N85" s="20">
-        <f>J85*M85*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>16.487064</v>
       </c>
     </row>
@@ -18213,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="20">
-        <f>J86*M86*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18262,7 +18272,7 @@
         <v>7</v>
       </c>
       <c r="N87" s="20">
-        <f>J87*M87*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>26.012447999999999</v>
       </c>
     </row>
@@ -18311,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="20">
-        <f>J88*M88*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18323,7 +18333,7 @@
         <v>43915</v>
       </c>
       <c r="E89" s="8">
-        <f t="shared" ref="E89" si="3">WORKDAY(EDATE(D89,1)-1,1)</f>
+        <f t="shared" ref="E89" si="6">WORKDAY(EDATE(D89,1)-1,1)</f>
         <v>43948</v>
       </c>
       <c r="F89" s="8">
@@ -18342,11 +18352,11 @@
         <v>533.28</v>
       </c>
       <c r="K89" s="8" t="str">
-        <f t="shared" ref="K89" si="4">TEXT(D89,"MMM")</f>
+        <f t="shared" ref="K89" si="7">TEXT(D89,"MMM")</f>
         <v>3</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" ref="L89" si="5">DAY(D89)</f>
+        <f t="shared" ref="L89" si="8">DAY(D89)</f>
         <v>25</v>
       </c>
       <c r="M89" s="5">
@@ -18354,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="20">
-        <f>J89*M89*Penalty_Rate</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26583,7 +26593,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26678,10 +26688,13 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="E11">
         <f>COUNTA(A8:A21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
